--- a/Dati Covid_prov_FULL.xlsx
+++ b/Dati Covid_prov_FULL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Desktop\Progetti ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2310A142-AD97-4396-9728-7DA30BB87598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F65A1D-B857-402C-B117-8580421E5687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="795" windowWidth="27360" windowHeight="14280" xr2:uid="{A0B35F86-BD24-4253-BA12-FBC58A149B18}"/>
+    <workbookView xWindow="1560" yWindow="1320" windowWidth="26235" windowHeight="14280" xr2:uid="{A0B35F86-BD24-4253-BA12-FBC58A149B18}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio3" sheetId="3" r:id="rId1"/>
@@ -384,18 +384,6 @@
     <t>Dimensione (km2)</t>
   </si>
   <si>
-    <t>Densità</t>
-  </si>
-  <si>
-    <t>Reddito Medio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trasporto privato </t>
-  </si>
-  <si>
-    <t>Qualità aria</t>
-  </si>
-  <si>
     <t>Valle d'Aosta / Vallée d'Aoste</t>
   </si>
   <si>
@@ -744,13 +732,25 @@
     <t>Disoccupazione 19</t>
   </si>
   <si>
-    <t>Disoccupazione</t>
-  </si>
-  <si>
-    <t>Trasporto Pubblico</t>
-  </si>
-  <si>
-    <t>Casi N</t>
+    <t>Cases N</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Mean Income</t>
+  </si>
+  <si>
+    <t>Public Transp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Transp </t>
+  </si>
+  <si>
+    <t>Air Quality</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1630,7 @@
   <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,9 +1641,9 @@
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
@@ -1654,7 +1654,7 @@
         <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
         <v>108</v>
@@ -1663,25 +1663,25 @@
         <v>109</v>
       </c>
       <c r="E1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1" t="s">
         <v>233</v>
-      </c>
-      <c r="F1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" t="s">
-        <v>231</v>
       </c>
       <c r="L1" t="s">
         <v>110</v>
@@ -1692,7 +1692,7 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1">
         <v>202</v>
@@ -1732,7 +1732,7 @@
         <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2">
         <v>4147</v>
@@ -1772,7 +1772,7 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1">
         <v>1924</v>
@@ -1812,7 +1812,7 @@
         <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2">
         <v>1217</v>
@@ -1852,7 +1852,7 @@
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1">
         <v>758</v>
@@ -1892,7 +1892,7 @@
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2">
         <v>346</v>
@@ -1932,7 +1932,7 @@
         <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1">
         <v>1908</v>
@@ -1972,7 +1972,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2">
         <v>593</v>
@@ -2012,7 +2012,7 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1">
         <v>1641</v>
@@ -2052,7 +2052,7 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2">
         <v>405</v>
@@ -2092,7 +2092,7 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1">
         <v>1244</v>
@@ -2132,7 +2132,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2">
         <v>227</v>
@@ -2172,7 +2172,7 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C14" s="1">
         <v>15253</v>
@@ -2212,7 +2212,7 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2">
         <v>1062</v>
@@ -2252,7 +2252,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C16" s="1">
         <v>5884</v>
@@ -2292,7 +2292,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C17" s="2">
         <v>2869</v>
@@ -2332,7 +2332,7 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C18" s="1">
         <v>16243</v>
@@ -2372,7 +2372,7 @@
         <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C19" s="2">
         <v>690</v>
@@ -2412,7 +2412,7 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C20" s="1">
         <v>326</v>
@@ -2452,7 +2452,7 @@
         <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C21" s="2">
         <v>221</v>
@@ -2492,7 +2492,7 @@
         <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C22" s="1">
         <v>420</v>
@@ -2532,7 +2532,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C23" s="2">
         <v>798</v>
@@ -2572,7 +2572,7 @@
         <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C24" s="1">
         <v>1017</v>
@@ -2612,7 +2612,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C25" s="2">
         <v>226</v>
@@ -2652,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C26" s="1">
         <v>898</v>
@@ -2692,7 +2692,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C27" s="2">
         <v>4260</v>
@@ -2732,7 +2732,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C28" s="1">
         <v>507</v>
@@ -2772,7 +2772,7 @@
         <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C29" s="2">
         <v>6775</v>
@@ -2812,7 +2812,7 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C30" s="1">
         <v>128</v>
@@ -2852,7 +2852,7 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C31" s="2">
         <v>3054</v>
@@ -2892,7 +2892,7 @@
         <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C32" s="1">
         <v>459</v>
@@ -2932,7 +2932,7 @@
         <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C33" s="2">
         <v>485</v>
@@ -2972,7 +2972,7 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C34" s="1">
         <v>1192</v>
@@ -3012,7 +3012,7 @@
         <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C35" s="2">
         <v>3460</v>
@@ -3052,7 +3052,7 @@
         <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C36" s="1">
         <v>1313</v>
@@ -3092,7 +3092,7 @@
         <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C37" s="2">
         <v>1870</v>
@@ -3132,7 +3132,7 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C38" s="1">
         <v>721</v>
@@ -3172,7 +3172,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C39" s="2">
         <v>5831</v>
@@ -3212,7 +3212,7 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C40" s="1">
         <v>242</v>
@@ -3252,7 +3252,7 @@
         <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C41" s="2">
         <v>441</v>
@@ -3292,7 +3292,7 @@
         <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C42" s="1">
         <v>1563</v>
@@ -3332,7 +3332,7 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C43" s="2">
         <v>71</v>
@@ -3372,7 +3372,7 @@
         <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C44" s="1">
         <v>936</v>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C45" s="2">
         <v>341</v>
@@ -3452,7 +3452,7 @@
         <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C46" s="1">
         <v>762</v>
@@ -3492,7 +3492,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C47" s="2">
         <v>647</v>
@@ -3532,7 +3532,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C48" s="1">
         <v>2932</v>
@@ -3572,7 +3572,7 @@
         <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C49" s="2">
         <v>526</v>
@@ -3612,7 +3612,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C50" s="1">
         <v>3677</v>
@@ -3652,7 +3652,7 @@
         <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C51" s="2">
         <v>1490</v>
@@ -3692,7 +3692,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C52" s="1">
         <v>1196</v>
@@ -3732,7 +3732,7 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C53" s="2">
         <v>3932</v>
@@ -3772,7 +3772,7 @@
         <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C54" s="1">
         <v>1124</v>
@@ -3812,7 +3812,7 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C55" s="2">
         <v>222</v>
@@ -3852,7 +3852,7 @@
         <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C56" s="1">
         <v>558</v>
@@ -3892,7 +3892,7 @@
         <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C57" s="2">
         <v>25558</v>
@@ -3932,7 +3932,7 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C58" s="1">
         <v>4211</v>
@@ -3972,7 +3972,7 @@
         <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C59" s="2">
         <v>6006</v>
@@ -4012,7 +4012,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C60" s="1">
         <v>3175</v>
@@ -4052,7 +4052,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C61" s="2">
         <v>2912</v>
@@ -4092,7 +4092,7 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C62" s="1">
         <v>108</v>
@@ -4132,7 +4132,7 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C63" s="2">
         <v>61</v>
@@ -4172,7 +4172,7 @@
         <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C64" s="1">
         <v>4556</v>
@@ -4212,7 +4212,7 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C65" s="2">
         <v>610</v>
@@ -4252,7 +4252,7 @@
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C66" s="1">
         <v>3863</v>
@@ -4292,7 +4292,7 @@
         <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C67" s="2">
         <v>5707</v>
@@ -4332,7 +4332,7 @@
         <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C68" s="1">
         <v>1122</v>
@@ -4372,7 +4372,7 @@
         <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C69" s="2">
         <v>2903</v>
@@ -4412,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C70" s="1">
         <v>1674</v>
@@ -4452,7 +4452,7 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C71" s="2">
         <v>4604</v>
@@ -4492,7 +4492,7 @@
         <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C72" s="1">
         <v>1007</v>
@@ -4532,7 +4532,7 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C73" s="2">
         <v>794</v>
@@ -4572,7 +4572,7 @@
         <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C74" s="1">
         <v>798</v>
@@ -4612,7 +4612,7 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C75" s="2">
         <v>199</v>
@@ -4652,7 +4652,7 @@
         <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C76" s="1">
         <v>597</v>
@@ -4692,7 +4692,7 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C77" s="2">
         <v>353</v>
@@ -4732,7 +4732,7 @@
         <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C78" s="1">
         <v>1257</v>
@@ -4772,7 +4772,7 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C79" s="2">
         <v>353</v>
@@ -4812,7 +4812,7 @@
         <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C80" s="1">
         <v>5237</v>
@@ -4852,7 +4852,7 @@
         <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C81" s="2">
         <v>447</v>
@@ -4892,7 +4892,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C82" s="1">
         <v>2313</v>
@@ -4932,7 +4932,7 @@
         <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C83" s="2">
         <v>7378</v>
@@ -4972,7 +4972,7 @@
         <v>105</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C84" s="1">
         <v>516</v>
@@ -5012,7 +5012,7 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C85" s="2">
         <v>883</v>
@@ -5052,7 +5052,7 @@
         <v>72</v>
       </c>
       <c r="B86" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C86" s="1">
         <v>1067</v>
@@ -5092,7 +5092,7 @@
         <v>34</v>
       </c>
       <c r="B87" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C87" s="2">
         <v>1775</v>
@@ -5132,7 +5132,7 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C88" s="1">
         <v>471</v>
@@ -5172,7 +5172,7 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C89" s="2">
         <v>405</v>
@@ -5212,7 +5212,7 @@
         <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C90" s="1">
         <v>1628</v>
@@ -5252,7 +5252,7 @@
         <v>76</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C91" s="2">
         <v>172</v>
@@ -5292,7 +5292,7 @@
         <v>68</v>
       </c>
       <c r="B92" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C92" s="1">
         <v>293</v>
@@ -5332,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C93" s="2">
         <v>701</v>
@@ -5372,7 +5372,7 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C94" s="1">
         <v>435</v>
@@ -5412,7 +5412,7 @@
         <v>58</v>
       </c>
       <c r="B95" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C95" s="2">
         <v>16197</v>
@@ -5452,7 +5452,7 @@
         <v>77</v>
       </c>
       <c r="B96" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C96" s="1">
         <v>152</v>
@@ -5492,7 +5492,7 @@
         <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C97" s="2">
         <v>5028</v>
@@ -5533,7 +5533,7 @@
         <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C98" s="1">
         <v>3611</v>
@@ -5573,7 +5573,7 @@
         <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C99" s="2">
         <v>1455</v>
@@ -5613,7 +5613,7 @@
         <v>24</v>
       </c>
       <c r="B100" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C100" s="1">
         <v>1138</v>
@@ -5653,7 +5653,7 @@
         <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C101" s="2">
         <v>4110</v>
@@ -5693,7 +5693,7 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C102" s="1">
         <v>3093</v>
@@ -5733,7 +5733,7 @@
         <v>65</v>
       </c>
       <c r="B103" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C103" s="2">
         <v>1164</v>
@@ -5773,7 +5773,7 @@
         <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C104" s="1">
         <v>1462</v>
@@ -5813,7 +5813,7 @@
         <v>99</v>
       </c>
       <c r="B105" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C105" s="2">
         <v>5481</v>
@@ -5853,7 +5853,7 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C106" s="1">
         <v>92</v>
@@ -5893,7 +5893,7 @@
         <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C107" s="2">
         <v>3065</v>
@@ -5933,7 +5933,7 @@
         <v>28</v>
       </c>
       <c r="B108" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C108" s="1">
         <v>491</v>
@@ -5990,10 +5990,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6262,7 +6262,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B35">
         <v>5.5</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -6582,7 +6582,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>2.9</v>
@@ -6590,7 +6590,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -6758,7 +6758,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B97">
         <v>3.9</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B101">
         <v>6.5</v>
